--- a/Relatório/Relatório gráfico.xlsx
+++ b/Relatório/Relatório gráfico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitoria\Documents\Bandtec\Pesquisa e inovação\Projeto-P-I\Relatório\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitoria\Documents\Bandtec\Pesquisa e inovação\Projeto-P-I\Projeto-P-I\Relatório\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FC9F1F-F988-4169-8FBF-6D8442B034A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE448D2D-A58B-43BA-AA41-4AC37BDAA68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +281,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -457,31 +481,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,7 +502,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,33 +551,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3532,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,16 +3598,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="AD1" s="34" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="AD1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
     </row>
     <row r="2" spans="6:41" x14ac:dyDescent="0.25">
       <c r="F2" s="9" t="s">
@@ -3603,27 +3633,27 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="14">
         <v>19</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="14">
         <v>62</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="AD3" s="7">
         <v>1</v>
       </c>
-      <c r="AE3" s="35">
+      <c r="AE3" s="22">
         <v>22</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AF3" s="23">
         <v>67</v>
       </c>
     </row>
@@ -3631,37 +3661,37 @@
       <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="14">
         <v>21</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="14">
         <v>64</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="AD4" s="7">
         <v>2</v>
       </c>
-      <c r="AE4" s="35">
+      <c r="AE4" s="22">
         <v>21</v>
       </c>
-      <c r="AF4" s="37">
+      <c r="AF4" s="24">
         <v>60</v>
       </c>
     </row>
@@ -3669,117 +3699,117 @@
       <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="14">
         <v>25</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="14">
         <v>64</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="18">
         <f>MIN(G3:G32)</f>
         <v>12</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="19">
         <f>_xlfn.QUARTILE.EXC(G3:G32,1)</f>
         <v>19</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="20">
         <f>AVERAGE(G3:G32)</f>
         <v>23.366666666666667</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="19">
         <f>MEDIAN(G3:G32)</f>
         <v>24</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="19">
         <f>_xlfn.QUARTILE.EXC(G3:G32,3)</f>
         <v>26.5</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="41">
         <f>MAX(G3:G32)</f>
         <v>35</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
       <c r="AD5" s="7">
         <v>3</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AE5" s="22">
         <v>22</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="23">
         <v>65</v>
       </c>
-      <c r="AJ5" s="34" t="s">
+      <c r="AJ5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
     </row>
     <row r="6" spans="6:41" x14ac:dyDescent="0.25">
       <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="14">
         <v>29</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="14">
         <v>61</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="R6" s="24" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="R6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
       <c r="AD6" s="7">
         <v>4</v>
       </c>
-      <c r="AE6" s="35">
+      <c r="AE6" s="22">
         <v>24</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="23">
         <v>66</v>
       </c>
-      <c r="AJ6" s="39" t="s">
+      <c r="AJ6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AK6" s="40" t="s">
+      <c r="AK6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AL6" s="41" t="s">
+      <c r="AL6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="41" t="s">
+      <c r="AM6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" s="40" t="s">
+      <c r="AN6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AO6" s="39" t="s">
+      <c r="AO6" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3787,28 +3817,28 @@
       <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="15">
         <v>31</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="14">
         <v>58</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -3838,33 +3868,33 @@
       <c r="AD7" s="7">
         <v>5</v>
       </c>
-      <c r="AE7" s="35">
+      <c r="AE7" s="22">
         <v>23</v>
       </c>
-      <c r="AF7" s="36">
+      <c r="AF7" s="23">
         <v>67</v>
       </c>
-      <c r="AJ7" s="39">
+      <c r="AJ7" s="49">
         <f>MIN(AE3:AE32)</f>
         <v>21</v>
       </c>
-      <c r="AK7" s="40">
+      <c r="AK7" s="49">
         <f>_xlfn.QUARTILE.EXC(AE3:AE32,1)</f>
         <v>23</v>
       </c>
-      <c r="AL7" s="41">
+      <c r="AL7" s="48">
         <f>AVERAGE(AE3:AE32)</f>
         <v>26.5</v>
       </c>
-      <c r="AM7" s="41">
+      <c r="AM7" s="48">
         <f>MEDIAN(AE3:AE32)</f>
         <v>25</v>
       </c>
-      <c r="AN7" s="40">
+      <c r="AN7" s="27">
         <f>_xlfn.QUARTILE.EXC(AE3:AE32,3)</f>
         <v>30.25</v>
       </c>
-      <c r="AO7" s="39">
+      <c r="AO7" s="42">
         <f>MAX(AE3:AE32)</f>
         <v>37</v>
       </c>
@@ -3873,33 +3903,33 @@
       <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="15">
         <v>31</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="14">
         <v>54</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="18">
         <f>MIN(H3:H32)</f>
         <v>39</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="19">
         <f>_xlfn.QUARTILE.EXC(H3:H32,1)</f>
         <v>50.75</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="20">
         <f>AVERAGE(H3:H32)</f>
         <v>58.233333333333334</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="19">
         <f>MEDIAN(H3:H32)</f>
         <v>61.5</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="19">
         <f>_xlfn.QUARTILE.EXC(H3:H32,3)</f>
         <v>64</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="21">
         <f>MAX(H3:H32)</f>
         <v>74</v>
       </c>
@@ -3930,10 +3960,10 @@
       <c r="AD8" s="7">
         <v>6</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AE8" s="22">
         <v>25</v>
       </c>
-      <c r="AF8" s="37">
+      <c r="AF8" s="24">
         <v>63</v>
       </c>
     </row>
@@ -3941,19 +3971,19 @@
       <c r="F9" s="8">
         <v>7</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <v>35</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="14">
         <v>50</v>
       </c>
       <c r="AD9" s="7">
         <v>7</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AE9" s="22">
         <v>23</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AF9" s="24">
         <v>64</v>
       </c>
     </row>
@@ -3961,49 +3991,49 @@
       <c r="F10" s="8">
         <v>8</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>30</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="16">
         <v>46</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="R10" s="11" t="s">
+      <c r="J10" s="11"/>
+      <c r="R10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
       <c r="AD10" s="7">
         <v>8</v>
       </c>
-      <c r="AE10" s="35">
+      <c r="AE10" s="22">
         <v>24</v>
       </c>
-      <c r="AF10" s="37">
+      <c r="AF10" s="24">
         <v>63</v>
       </c>
-      <c r="AJ10" s="34" t="s">
+      <c r="AJ10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
     </row>
     <row r="11" spans="6:41" x14ac:dyDescent="0.25">
       <c r="F11" s="8">
         <v>9</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="14">
         <v>28</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="16">
         <v>43</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -4033,28 +4063,28 @@
       <c r="AD11" s="7">
         <v>9</v>
       </c>
-      <c r="AE11" s="35">
+      <c r="AE11" s="22">
         <v>21</v>
       </c>
-      <c r="AF11" s="36">
+      <c r="AF11" s="23">
         <v>66</v>
       </c>
-      <c r="AJ11" s="39" t="s">
+      <c r="AJ11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AK11" s="40" t="s">
+      <c r="AK11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AL11" s="41" t="s">
+      <c r="AL11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AM11" s="41" t="s">
+      <c r="AM11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AN11" s="40" t="s">
+      <c r="AN11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AO11" s="39" t="s">
+      <c r="AO11" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4062,10 +4092,10 @@
       <c r="F12" s="8">
         <v>10</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="14">
         <v>23</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="16">
         <v>39</v>
       </c>
       <c r="R12" s="5">
@@ -4095,33 +4125,33 @@
       <c r="AD12" s="7">
         <v>10</v>
       </c>
-      <c r="AE12" s="35">
+      <c r="AE12" s="22">
         <v>26</v>
       </c>
-      <c r="AF12" s="37">
+      <c r="AF12" s="24">
         <v>61</v>
       </c>
-      <c r="AJ12" s="42">
+      <c r="AJ12" s="47">
         <f>MIN(AF3:AF32)</f>
         <v>44</v>
       </c>
-      <c r="AK12" s="43">
+      <c r="AK12" s="47">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,1)</f>
         <v>54</v>
       </c>
-      <c r="AL12" s="44">
+      <c r="AL12" s="45">
         <f>AVERAGE(AF3:AF32)</f>
         <v>58.366666666666667</v>
       </c>
-      <c r="AM12" s="45">
+      <c r="AM12" s="46">
         <f>MEDIAN(AF3:AF32)</f>
         <v>58.5</v>
       </c>
-      <c r="AN12" s="43">
+      <c r="AN12" s="28">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,3)</f>
         <v>64</v>
       </c>
-      <c r="AO12" s="42">
+      <c r="AO12" s="43">
         <f>MAX(AF3:AF32)</f>
         <v>67</v>
       </c>
@@ -4130,19 +4160,19 @@
       <c r="F13" s="8">
         <v>11</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="14">
         <v>19</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="16">
         <v>44</v>
       </c>
       <c r="AD13" s="7">
         <v>11</v>
       </c>
-      <c r="AE13" s="35">
+      <c r="AE13" s="22">
         <v>25</v>
       </c>
-      <c r="AF13" s="37">
+      <c r="AF13" s="24">
         <v>64</v>
       </c>
     </row>
@@ -4150,19 +4180,19 @@
       <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="15">
         <v>16</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="16">
         <v>49</v>
       </c>
       <c r="AD14" s="7">
         <v>12</v>
       </c>
-      <c r="AE14" s="35">
+      <c r="AE14" s="22">
         <v>24</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AF14" s="23">
         <v>65</v>
       </c>
     </row>
@@ -4170,29 +4200,29 @@
       <c r="F15" s="8">
         <v>13</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="17">
         <v>13</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="16">
         <v>47</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="28"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="40"/>
       <c r="AD15" s="7">
         <v>13</v>
       </c>
-      <c r="AE15" s="35">
+      <c r="AE15" s="22">
         <v>23</v>
       </c>
-      <c r="AF15" s="37">
+      <c r="AF15" s="24">
         <v>62</v>
       </c>
     </row>
@@ -4200,29 +4230,29 @@
       <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="16">
         <v>12</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="14">
         <v>52</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
       <c r="AD16" s="7">
         <v>14</v>
       </c>
-      <c r="AE16" s="35">
+      <c r="AE16" s="22">
         <v>22</v>
       </c>
-      <c r="AF16" s="37">
+      <c r="AF16" s="24">
         <v>61</v>
       </c>
     </row>
@@ -4230,10 +4260,10 @@
       <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="15">
         <v>16</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="14">
         <v>51</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -4263,10 +4293,10 @@
       <c r="AD17" s="7">
         <v>15</v>
       </c>
-      <c r="AE17" s="35">
+      <c r="AE17" s="22">
         <v>21</v>
       </c>
-      <c r="AF17" s="38">
+      <c r="AF17" s="25">
         <v>57</v>
       </c>
     </row>
@@ -4274,10 +4304,10 @@
       <c r="F18" s="8">
         <v>16</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="14">
         <v>20</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="14">
         <v>56</v>
       </c>
       <c r="R18" s="6" t="s">
@@ -4307,10 +4337,10 @@
       <c r="AD18" s="7">
         <v>16</v>
       </c>
-      <c r="AE18" s="35">
+      <c r="AE18" s="22">
         <v>26</v>
       </c>
-      <c r="AF18" s="38">
+      <c r="AF18" s="25">
         <v>58</v>
       </c>
     </row>
@@ -4318,19 +4348,19 @@
       <c r="F19" s="8">
         <v>17</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="14">
         <v>23</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="14">
         <v>61</v>
       </c>
       <c r="AD19" s="7">
         <v>17</v>
       </c>
-      <c r="AE19" s="35">
+      <c r="AE19" s="22">
         <v>24</v>
       </c>
-      <c r="AF19" s="38">
+      <c r="AF19" s="25">
         <v>55</v>
       </c>
     </row>
@@ -4338,29 +4368,29 @@
       <c r="F20" s="8">
         <v>18</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="14">
         <v>26</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="14">
         <v>64</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
       <c r="AD20" s="7">
         <v>18</v>
       </c>
-      <c r="AE20" s="35">
+      <c r="AE20" s="22">
         <v>23</v>
       </c>
-      <c r="AF20" s="38">
+      <c r="AF20" s="25">
         <v>54</v>
       </c>
     </row>
@@ -4368,10 +4398,10 @@
       <c r="F21" s="8">
         <v>19</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="14">
         <v>26</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="14">
         <v>67</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -4401,10 +4431,10 @@
       <c r="AD21" s="7">
         <v>19</v>
       </c>
-      <c r="AE21" s="35">
+      <c r="AE21" s="22">
         <v>27</v>
       </c>
-      <c r="AF21" s="38">
+      <c r="AF21" s="25">
         <v>53</v>
       </c>
     </row>
@@ -4412,10 +4442,10 @@
       <c r="F22" s="8">
         <v>20</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="14">
         <v>26</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="14">
         <v>67</v>
       </c>
       <c r="R22" s="5">
@@ -4445,10 +4475,10 @@
       <c r="AD22" s="7">
         <v>20</v>
       </c>
-      <c r="AE22" s="35">
+      <c r="AE22" s="22">
         <v>28</v>
       </c>
-      <c r="AF22" s="38">
+      <c r="AF22" s="25">
         <v>54</v>
       </c>
     </row>
@@ -4456,19 +4486,19 @@
       <c r="F23" s="8">
         <v>21</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="14">
         <v>26</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="14">
         <v>63</v>
       </c>
       <c r="AD23" s="7">
         <v>21</v>
       </c>
-      <c r="AE23" s="35">
+      <c r="AE23" s="22">
         <v>27</v>
       </c>
-      <c r="AF23" s="38">
+      <c r="AF23" s="25">
         <v>55</v>
       </c>
     </row>
@@ -4476,19 +4506,19 @@
       <c r="F24" s="8">
         <v>22</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="14">
         <v>26</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="14">
         <v>62</v>
       </c>
       <c r="AD24" s="7">
         <v>22</v>
       </c>
-      <c r="AE24" s="36">
+      <c r="AE24" s="23">
         <v>29</v>
       </c>
-      <c r="AF24" s="38">
+      <c r="AF24" s="25">
         <v>57</v>
       </c>
     </row>
@@ -4496,19 +4526,19 @@
       <c r="F25" s="8">
         <v>23</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="14">
         <v>26</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="14">
         <v>66</v>
       </c>
       <c r="AD25" s="7">
         <v>23</v>
       </c>
-      <c r="AE25" s="36">
+      <c r="AE25" s="23">
         <v>30</v>
       </c>
-      <c r="AF25" s="38">
+      <c r="AF25" s="25">
         <v>59</v>
       </c>
     </row>
@@ -4516,19 +4546,19 @@
       <c r="F26" s="8">
         <v>24</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="14">
         <v>28</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="14">
         <v>69</v>
       </c>
       <c r="AD26" s="7">
         <v>24</v>
       </c>
-      <c r="AE26" s="37">
+      <c r="AE26" s="24">
         <v>31</v>
       </c>
-      <c r="AF26" s="38">
+      <c r="AF26" s="25">
         <v>54</v>
       </c>
     </row>
@@ -4536,19 +4566,19 @@
       <c r="F27" s="8">
         <v>25</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="14">
         <v>25</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="15">
         <v>74</v>
       </c>
       <c r="AD27" s="7">
         <v>25</v>
       </c>
-      <c r="AE27" s="37">
+      <c r="AE27" s="24">
         <v>31</v>
       </c>
-      <c r="AF27" s="38">
+      <c r="AF27" s="25">
         <v>54</v>
       </c>
     </row>
@@ -4556,19 +4586,19 @@
       <c r="F28" s="8">
         <v>26</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="14">
         <v>23</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="14">
         <v>66</v>
       </c>
       <c r="AD28" s="7">
         <v>26</v>
       </c>
-      <c r="AE28" s="37">
+      <c r="AE28" s="24">
         <v>32</v>
       </c>
-      <c r="AF28" s="38">
+      <c r="AF28" s="25">
         <v>53</v>
       </c>
     </row>
@@ -4576,19 +4606,19 @@
       <c r="F29" s="8">
         <v>27</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="14">
         <v>23</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="14">
         <v>62</v>
       </c>
       <c r="AD29" s="7">
         <v>27</v>
       </c>
-      <c r="AE29" s="38">
+      <c r="AE29" s="25">
         <v>36</v>
       </c>
-      <c r="AF29" s="38">
+      <c r="AF29" s="25">
         <v>52</v>
       </c>
     </row>
@@ -4596,19 +4626,19 @@
       <c r="F30" s="8">
         <v>28</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="14">
         <v>19</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="14">
         <v>61</v>
       </c>
       <c r="AD30" s="7">
         <v>28</v>
       </c>
-      <c r="AE30" s="37">
+      <c r="AE30" s="24">
         <v>33</v>
       </c>
-      <c r="AF30" s="38">
+      <c r="AF30" s="25">
         <v>50</v>
       </c>
     </row>
@@ -4616,19 +4646,19 @@
       <c r="F31" s="8">
         <v>29</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="14">
         <v>19</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="14">
         <v>63</v>
       </c>
       <c r="AD31" s="7">
         <v>29</v>
       </c>
-      <c r="AE31" s="38">
+      <c r="AE31" s="25">
         <v>35</v>
       </c>
-      <c r="AF31" s="38">
+      <c r="AF31" s="25">
         <v>48</v>
       </c>
     </row>
@@ -4636,36 +4666,36 @@
       <c r="F32" s="8">
         <v>30</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="14">
         <v>17</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="14">
         <v>62</v>
       </c>
       <c r="AD32" s="7">
         <v>30</v>
       </c>
-      <c r="AE32" s="38">
+      <c r="AE32" s="25">
         <v>37</v>
       </c>
-      <c r="AF32" s="38">
+      <c r="AF32" s="25">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="R15:Y15"/>
     <mergeCell ref="AJ5:AO5"/>
     <mergeCell ref="AJ10:AO10"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="R6:Y6"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="R5:Y5"/>
-    <mergeCell ref="R15:Y15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Relatório/Relatório gráfico.xlsx
+++ b/Relatório/Relatório gráfico.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitoria\Documents\Bandtec\Pesquisa e inovação\Projeto-P-I\Projeto-P-I\Relatório\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PI\Projeto Sprint 2\Projeto-P-I\Relatório\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE448D2D-A58B-43BA-AA41-4AC37BDAA68B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CACFC0-5E75-4CAA-8E3B-CA1FE8051694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -185,20 +188,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,20 +277,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -303,8 +295,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -461,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -499,10 +521,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -510,9 +528,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,41 +571,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3562,54 +3601,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" customWidth="1"/>
-    <col min="41" max="41" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5546875" customWidth="1"/>
+    <col min="41" max="41" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F1" s="30" t="s">
+    <row r="1" spans="6:41" x14ac:dyDescent="0.3">
+      <c r="F1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="AD1" s="29" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="AD1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
     </row>
-    <row r="2" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3629,7 +3668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F3" s="8">
         <v>1</v>
       </c>
@@ -3639,25 +3678,25 @@
       <c r="H3" s="14">
         <v>62</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
       <c r="AD3" s="7">
         <v>1</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="20">
         <v>22</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="20">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F4" s="8">
         <v>2</v>
       </c>
@@ -3688,14 +3727,14 @@
       <c r="AD4" s="7">
         <v>2</v>
       </c>
-      <c r="AE4" s="22">
+      <c r="AE4" s="20">
         <v>21</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AF4" s="61">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F5" s="8">
         <v>3</v>
       </c>
@@ -3705,59 +3744,59 @@
       <c r="H5" s="14">
         <v>64</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="41">
         <f>MIN(G3:G32)</f>
         <v>12</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="44">
         <f>_xlfn.QUARTILE.EXC(G3:G32,1)</f>
         <v>19</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="50">
         <f>AVERAGE(G3:G32)</f>
         <v>23.366666666666667</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="44">
         <f>MEDIAN(G3:G32)</f>
         <v>24</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="44">
         <f>_xlfn.QUARTILE.EXC(G3:G32,3)</f>
         <v>26.5</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="45">
         <f>MAX(G3:G32)</f>
         <v>35</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
       <c r="AD5" s="7">
         <v>3</v>
       </c>
-      <c r="AE5" s="22">
+      <c r="AE5" s="20">
         <v>22</v>
       </c>
-      <c r="AF5" s="23">
+      <c r="AF5" s="62">
         <v>65</v>
       </c>
-      <c r="AJ5" s="29" t="s">
+      <c r="AJ5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
     </row>
-    <row r="6" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F6" s="8">
         <v>4</v>
       </c>
@@ -3767,53 +3806,53 @@
       <c r="H6" s="14">
         <v>61</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="R6" s="35" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="R6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
       <c r="AD6" s="7">
         <v>4</v>
       </c>
-      <c r="AE6" s="22">
+      <c r="AE6" s="20">
         <v>24</v>
       </c>
-      <c r="AF6" s="23">
+      <c r="AF6" s="20">
         <v>66</v>
       </c>
-      <c r="AJ6" s="49" t="s">
+      <c r="AJ6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AK6" s="49" t="s">
+      <c r="AK6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AL6" s="48" t="s">
+      <c r="AL6" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="48" t="s">
+      <c r="AM6" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" s="27" t="s">
+      <c r="AN6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AO6" s="26" t="s">
+      <c r="AO6" s="54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F7" s="8">
         <v>5</v>
       </c>
@@ -3841,65 +3880,65 @@
       <c r="O7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="49" t="s">
         <v>10</v>
       </c>
       <c r="AD7" s="7">
         <v>5</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="20">
         <v>23</v>
       </c>
-      <c r="AF7" s="23">
+      <c r="AF7" s="20">
         <v>67</v>
       </c>
-      <c r="AJ7" s="49">
+      <c r="AJ7" s="28">
         <f>MIN(AE3:AE32)</f>
         <v>21</v>
       </c>
-      <c r="AK7" s="49">
+      <c r="AK7" s="28">
         <f>_xlfn.QUARTILE.EXC(AE3:AE32,1)</f>
         <v>23</v>
       </c>
-      <c r="AL7" s="48">
+      <c r="AL7" s="27">
         <f>AVERAGE(AE3:AE32)</f>
         <v>26.5</v>
       </c>
-      <c r="AM7" s="48">
+      <c r="AM7" s="27">
         <f>MEDIAN(AE3:AE32)</f>
         <v>25</v>
       </c>
-      <c r="AN7" s="27">
+      <c r="AN7" s="24">
         <f>_xlfn.QUARTILE.EXC(AE3:AE32,3)</f>
         <v>30.25</v>
       </c>
-      <c r="AO7" s="42">
+      <c r="AO7" s="25">
         <f>MAX(AE3:AE32)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F8" s="8">
         <v>6</v>
       </c>
@@ -3909,27 +3948,27 @@
       <c r="H8" s="14">
         <v>54</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="41">
         <f>MIN(H3:H32)</f>
         <v>39</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <f>_xlfn.QUARTILE.EXC(H3:H32,1)</f>
         <v>50.75</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <f>AVERAGE(H3:H32)</f>
         <v>58.233333333333334</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <f>MEDIAN(H3:H32)</f>
         <v>61.5</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="17">
         <f>_xlfn.QUARTILE.EXC(H3:H32,3)</f>
         <v>64</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <f>MAX(H3:H32)</f>
         <v>74</v>
       </c>
@@ -3960,14 +3999,14 @@
       <c r="AD8" s="7">
         <v>6</v>
       </c>
-      <c r="AE8" s="22">
+      <c r="AE8" s="20">
         <v>25</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AF8" s="62">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F9" s="8">
         <v>7</v>
       </c>
@@ -3980,72 +4019,72 @@
       <c r="AD9" s="7">
         <v>7</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="20">
         <v>23</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9" s="62">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F10" s="8">
         <v>8</v>
       </c>
       <c r="G10" s="15">
         <v>30</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="51">
         <v>46</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="R10" s="36" t="s">
+      <c r="R10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
       <c r="AD10" s="7">
         <v>8</v>
       </c>
-      <c r="AE10" s="22">
+      <c r="AE10" s="20">
         <v>24</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10" s="62">
         <v>63</v>
       </c>
-      <c r="AJ10" s="29" t="s">
+      <c r="AJ10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
     </row>
-    <row r="11" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F11" s="8">
         <v>9</v>
       </c>
       <c r="G11" s="14">
         <v>28</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="52">
         <v>43</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="44" t="s">
         <v>13</v>
       </c>
       <c r="V11" s="4" t="s">
@@ -4063,39 +4102,39 @@
       <c r="AD11" s="7">
         <v>9</v>
       </c>
-      <c r="AE11" s="22">
+      <c r="AE11" s="20">
         <v>21</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="20">
         <v>66</v>
       </c>
-      <c r="AJ11" s="42" t="s">
+      <c r="AJ11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AK11" s="42" t="s">
+      <c r="AK11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AL11" s="44" t="s">
+      <c r="AL11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AM11" s="44" t="s">
+      <c r="AM11" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AN11" s="27" t="s">
+      <c r="AN11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AO11" s="26" t="s">
+      <c r="AO11" s="54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F12" s="8">
         <v>10</v>
       </c>
       <c r="G12" s="14">
         <v>23</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="53">
         <v>39</v>
       </c>
       <c r="R12" s="5">
@@ -4125,157 +4164,157 @@
       <c r="AD12" s="7">
         <v>10</v>
       </c>
-      <c r="AE12" s="22">
+      <c r="AE12" s="20">
         <v>26</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="62">
         <v>61</v>
       </c>
-      <c r="AJ12" s="47">
+      <c r="AJ12" s="56">
         <f>MIN(AF3:AF32)</f>
         <v>44</v>
       </c>
-      <c r="AK12" s="47">
+      <c r="AK12" s="56">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,1)</f>
         <v>54</v>
       </c>
-      <c r="AL12" s="45">
+      <c r="AL12" s="57">
         <f>AVERAGE(AF3:AF32)</f>
         <v>58.366666666666667</v>
       </c>
-      <c r="AM12" s="46">
+      <c r="AM12" s="58">
         <f>MEDIAN(AF3:AF32)</f>
         <v>58.5</v>
       </c>
-      <c r="AN12" s="28">
+      <c r="AN12" s="59">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,3)</f>
         <v>64</v>
       </c>
-      <c r="AO12" s="43">
+      <c r="AO12" s="26">
         <f>MAX(AF3:AF32)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F13" s="8">
         <v>11</v>
       </c>
       <c r="G13" s="14">
         <v>19</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="52">
         <v>44</v>
       </c>
       <c r="AD13" s="7">
         <v>11</v>
       </c>
-      <c r="AE13" s="22">
+      <c r="AE13" s="20">
         <v>25</v>
       </c>
-      <c r="AF13" s="24">
+      <c r="AF13" s="62">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="51">
         <v>16</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>49</v>
       </c>
       <c r="AD14" s="7">
         <v>12</v>
       </c>
-      <c r="AE14" s="22">
+      <c r="AE14" s="20">
         <v>24</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="62">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F15" s="8">
         <v>13</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="52">
         <v>13</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="51">
         <v>47</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="34"/>
       <c r="AD15" s="7">
         <v>13</v>
       </c>
-      <c r="AE15" s="22">
+      <c r="AE15" s="20">
         <v>23</v>
       </c>
-      <c r="AF15" s="24">
+      <c r="AF15" s="62">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="6:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="53">
         <v>12</v>
       </c>
       <c r="H16" s="14">
         <v>52</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
       <c r="AD16" s="7">
         <v>14</v>
       </c>
-      <c r="AE16" s="22">
+      <c r="AE16" s="20">
         <v>22</v>
       </c>
-      <c r="AF16" s="24">
+      <c r="AF16" s="62">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="52">
         <v>16</v>
       </c>
       <c r="H17" s="14">
         <v>51</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="44" t="s">
         <v>13</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -4293,14 +4332,14 @@
       <c r="AD17" s="7">
         <v>15</v>
       </c>
-      <c r="AE17" s="22">
+      <c r="AE17" s="20">
         <v>21</v>
       </c>
-      <c r="AF17" s="25">
+      <c r="AF17" s="61">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F18" s="8">
         <v>16</v>
       </c>
@@ -4337,14 +4376,14 @@
       <c r="AD18" s="7">
         <v>16</v>
       </c>
-      <c r="AE18" s="22">
+      <c r="AE18" s="20">
         <v>26</v>
       </c>
-      <c r="AF18" s="25">
+      <c r="AF18" s="61">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F19" s="8">
         <v>17</v>
       </c>
@@ -4357,14 +4396,14 @@
       <c r="AD19" s="7">
         <v>17</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AE19" s="20">
         <v>24</v>
       </c>
-      <c r="AF19" s="25">
+      <c r="AF19" s="61">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F20" s="8">
         <v>18</v>
       </c>
@@ -4374,27 +4413,27 @@
       <c r="H20" s="14">
         <v>64</v>
       </c>
-      <c r="R20" s="36" t="s">
+      <c r="R20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
       <c r="AD20" s="7">
         <v>18</v>
       </c>
-      <c r="AE20" s="22">
+      <c r="AE20" s="20">
         <v>23</v>
       </c>
-      <c r="AF20" s="25">
+      <c r="AF20" s="60">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F21" s="8">
         <v>19</v>
       </c>
@@ -4404,16 +4443,16 @@
       <c r="H21" s="14">
         <v>67</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="44" t="s">
         <v>13</v>
       </c>
       <c r="V21" s="4" t="s">
@@ -4431,14 +4470,14 @@
       <c r="AD21" s="7">
         <v>19</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="AE21" s="20">
         <v>27</v>
       </c>
-      <c r="AF21" s="25">
+      <c r="AF21" s="60">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F22" s="8">
         <v>20</v>
       </c>
@@ -4475,14 +4514,14 @@
       <c r="AD22" s="7">
         <v>20</v>
       </c>
-      <c r="AE22" s="22">
+      <c r="AE22" s="20">
         <v>28</v>
       </c>
-      <c r="AF22" s="25">
+      <c r="AF22" s="60">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F23" s="8">
         <v>21</v>
       </c>
@@ -4495,14 +4534,14 @@
       <c r="AD23" s="7">
         <v>21</v>
       </c>
-      <c r="AE23" s="22">
+      <c r="AE23" s="20">
         <v>27</v>
       </c>
-      <c r="AF23" s="25">
+      <c r="AF23" s="60">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F24" s="8">
         <v>22</v>
       </c>
@@ -4515,14 +4554,14 @@
       <c r="AD24" s="7">
         <v>22</v>
       </c>
-      <c r="AE24" s="23">
+      <c r="AE24" s="21">
         <v>29</v>
       </c>
-      <c r="AF24" s="25">
+      <c r="AF24" s="61">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F25" s="8">
         <v>23</v>
       </c>
@@ -4535,14 +4574,14 @@
       <c r="AD25" s="7">
         <v>23</v>
       </c>
-      <c r="AE25" s="23">
+      <c r="AE25" s="21">
         <v>30</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AF25" s="61">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F26" s="8">
         <v>24</v>
       </c>
@@ -4555,14 +4594,14 @@
       <c r="AD26" s="7">
         <v>24</v>
       </c>
-      <c r="AE26" s="24">
+      <c r="AE26" s="22">
         <v>31</v>
       </c>
-      <c r="AF26" s="25">
+      <c r="AF26" s="60">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F27" s="8">
         <v>25</v>
       </c>
@@ -4575,14 +4614,14 @@
       <c r="AD27" s="7">
         <v>25</v>
       </c>
-      <c r="AE27" s="24">
+      <c r="AE27" s="22">
         <v>31</v>
       </c>
-      <c r="AF27" s="25">
+      <c r="AF27" s="60">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F28" s="8">
         <v>26</v>
       </c>
@@ -4595,14 +4634,14 @@
       <c r="AD28" s="7">
         <v>26</v>
       </c>
-      <c r="AE28" s="24">
+      <c r="AE28" s="22">
         <v>32</v>
       </c>
-      <c r="AF28" s="25">
+      <c r="AF28" s="60">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F29" s="8">
         <v>27</v>
       </c>
@@ -4615,14 +4654,14 @@
       <c r="AD29" s="7">
         <v>27</v>
       </c>
-      <c r="AE29" s="25">
+      <c r="AE29" s="23">
         <v>36</v>
       </c>
-      <c r="AF29" s="25">
+      <c r="AF29" s="60">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F30" s="8">
         <v>28</v>
       </c>
@@ -4635,14 +4674,14 @@
       <c r="AD30" s="7">
         <v>28</v>
       </c>
-      <c r="AE30" s="24">
+      <c r="AE30" s="22">
         <v>33</v>
       </c>
-      <c r="AF30" s="25">
+      <c r="AF30" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F31" s="8">
         <v>29</v>
       </c>
@@ -4655,14 +4694,14 @@
       <c r="AD31" s="7">
         <v>29</v>
       </c>
-      <c r="AE31" s="25">
+      <c r="AE31" s="23">
         <v>35</v>
       </c>
-      <c r="AF31" s="25">
+      <c r="AF31" s="60">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F32" s="8">
         <v>30</v>
       </c>
@@ -4675,27 +4714,27 @@
       <c r="AD32" s="7">
         <v>30</v>
       </c>
-      <c r="AE32" s="25">
+      <c r="AE32" s="23">
         <v>37</v>
       </c>
-      <c r="AF32" s="25">
+      <c r="AF32" s="60">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AJ5:AO5"/>
+    <mergeCell ref="AJ10:AO10"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="R16:Y16"/>
     <mergeCell ref="R20:Y20"/>
     <mergeCell ref="R6:Y6"/>
     <mergeCell ref="R10:Y10"/>
     <mergeCell ref="R5:Y5"/>
     <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="AJ5:AO5"/>
-    <mergeCell ref="AJ10:AO10"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AD1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Relatório/Relatório gráfico.xlsx
+++ b/Relatório/Relatório gráfico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PI\Projeto Sprint 2\Projeto-P-I\Relatório\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CACFC0-5E75-4CAA-8E3B-CA1FE8051694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D509D1-E8E6-4D92-8D8F-D81D5ED320D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="22">
@@ -483,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -530,47 +545,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -592,21 +568,61 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,13 +661,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -685,13 +707,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -725,13 +753,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -959,13 +993,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1202,9 +1242,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1218,9 +1258,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1249,9 +1288,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1277,9 +1316,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1319,9 +1357,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1338,17 +1375,56 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="5000"/>
+              <a:lumOff val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="30000"/>
+              <a:lumOff val="70000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1391,13 +1467,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1405,13 +1487,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Controle</a:t>
+              <a:t>Controle de temperatura e umidadade - Umidade</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> de temperatura e umidadade - Umidade</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1428,13 +1505,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1468,13 +1551,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1702,13 +1791,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1945,9 +2040,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1961,9 +2056,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1992,9 +2086,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2020,9 +2114,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2062,9 +2155,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2081,17 +2173,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2114,13 +2217,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2154,13 +2254,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2194,35 +2291,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2230,26 +2325,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2258,9 +2361,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2279,14 +2381,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2295,45 +2389,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2345,31 +2429,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2387,21 +2469,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2411,20 +2490,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2438,14 +2517,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2459,9 +2538,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2475,12 +2553,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2492,9 +2564,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2509,108 +2581,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2622,12 +2701,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2643,7 +2729,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2652,9 +2737,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2664,7 +2748,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2672,9 +2756,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2685,9 +2769,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2699,46 +2782,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2746,26 +2821,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2774,9 +2857,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2795,14 +2877,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2811,45 +2885,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2861,31 +2925,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2903,21 +2965,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2927,20 +2986,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2954,14 +3013,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2975,9 +3034,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2991,12 +3049,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3008,9 +3060,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3025,108 +3077,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3138,12 +3197,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3159,7 +3225,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3168,9 +3233,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3180,7 +3244,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3188,9 +3252,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3201,9 +3265,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3215,12 +3278,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3236,7 +3293,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>973015</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -3267,12 +3324,12 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>345831</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
@@ -3601,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3637,16 +3694,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:41" x14ac:dyDescent="0.3">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="AD1" s="35" t="s">
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
     </row>
     <row r="2" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F2" s="9" t="s">
@@ -3678,21 +3735,21 @@
       <c r="H3" s="14">
         <v>62</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
       <c r="AD3" s="7">
         <v>1</v>
       </c>
       <c r="AE3" s="20">
         <v>22</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="55">
         <v>67</v>
       </c>
     </row>
@@ -3730,7 +3787,7 @@
       <c r="AE4" s="20">
         <v>21</v>
       </c>
-      <c r="AF4" s="61">
+      <c r="AF4" s="56">
         <v>60</v>
       </c>
     </row>
@@ -3744,57 +3801,57 @@
       <c r="H5" s="14">
         <v>64</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="28">
         <f>MIN(G3:G32)</f>
         <v>12</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="31">
         <f>_xlfn.QUARTILE.EXC(G3:G32,1)</f>
         <v>19</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="37">
         <f>AVERAGE(G3:G32)</f>
         <v>23.366666666666667</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="31">
         <f>MEDIAN(G3:G32)</f>
         <v>24</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="31">
         <f>_xlfn.QUARTILE.EXC(G3:G32,3)</f>
         <v>26.5</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="32">
         <f>MAX(G3:G32)</f>
         <v>35</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
       <c r="AD5" s="7">
         <v>3</v>
       </c>
       <c r="AE5" s="20">
         <v>22</v>
       </c>
-      <c r="AF5" s="62">
+      <c r="AF5" s="57">
         <v>65</v>
       </c>
-      <c r="AJ5" s="35" t="s">
+      <c r="AJ5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
     </row>
     <row r="6" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F6" s="8">
@@ -3806,49 +3863,49 @@
       <c r="H6" s="14">
         <v>61</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-      <c r="R6" s="29" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="R6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
       <c r="AD6" s="7">
         <v>4</v>
       </c>
       <c r="AE6" s="20">
         <v>24</v>
       </c>
-      <c r="AF6" s="20">
+      <c r="AF6" s="55">
         <v>66</v>
       </c>
-      <c r="AJ6" s="54" t="s">
+      <c r="AJ6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AK6" s="54" t="s">
+      <c r="AK6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AL6" s="55" t="s">
+      <c r="AL6" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="55" t="s">
+      <c r="AM6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" s="54" t="s">
+      <c r="AN6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AO6" s="54" t="s">
+      <c r="AO6" s="41" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3880,28 +3937,28 @@
       <c r="O7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="42" t="s">
+      <c r="S7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="V7" s="46" t="s">
+      <c r="V7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="47" t="s">
+      <c r="W7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="48" t="s">
+      <c r="X7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Y7" s="49" t="s">
+      <c r="Y7" s="36" t="s">
         <v>10</v>
       </c>
       <c r="AD7" s="7">
@@ -3910,22 +3967,22 @@
       <c r="AE7" s="20">
         <v>23</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AF7" s="55">
         <v>67</v>
       </c>
-      <c r="AJ7" s="28">
+      <c r="AJ7" s="27">
         <f>MIN(AE3:AE32)</f>
         <v>21</v>
       </c>
-      <c r="AK7" s="28">
+      <c r="AK7" s="27">
         <f>_xlfn.QUARTILE.EXC(AE3:AE32,1)</f>
         <v>23</v>
       </c>
-      <c r="AL7" s="27">
+      <c r="AL7" s="26">
         <f>AVERAGE(AE3:AE32)</f>
         <v>26.5</v>
       </c>
-      <c r="AM7" s="27">
+      <c r="AM7" s="26">
         <f>MEDIAN(AE3:AE32)</f>
         <v>25</v>
       </c>
@@ -3948,7 +4005,7 @@
       <c r="H8" s="14">
         <v>54</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="28">
         <f>MIN(H3:H32)</f>
         <v>39</v>
       </c>
@@ -4002,7 +4059,7 @@
       <c r="AE8" s="20">
         <v>25</v>
       </c>
-      <c r="AF8" s="62">
+      <c r="AF8" s="57">
         <v>63</v>
       </c>
     </row>
@@ -4022,7 +4079,7 @@
       <c r="AE9" s="20">
         <v>23</v>
       </c>
-      <c r="AF9" s="62">
+      <c r="AF9" s="57">
         <v>64</v>
       </c>
     </row>
@@ -4033,37 +4090,37 @@
       <c r="G10" s="15">
         <v>30</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="38">
         <v>46</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="R10" s="30" t="s">
+      <c r="R10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
       <c r="AD10" s="7">
         <v>8</v>
       </c>
       <c r="AE10" s="20">
         <v>24</v>
       </c>
-      <c r="AF10" s="62">
+      <c r="AF10" s="57">
         <v>63</v>
       </c>
-      <c r="AJ10" s="35" t="s">
+      <c r="AJ10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
     </row>
     <row r="11" spans="6:41" x14ac:dyDescent="0.3">
       <c r="F11" s="8">
@@ -4072,19 +4129,19 @@
       <c r="G11" s="14">
         <v>28</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="39">
         <v>43</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="S11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="43" t="s">
+      <c r="T11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="31" t="s">
         <v>13</v>
       </c>
       <c r="V11" s="4" t="s">
@@ -4105,25 +4162,25 @@
       <c r="AE11" s="20">
         <v>21</v>
       </c>
-      <c r="AF11" s="20">
+      <c r="AF11" s="55">
         <v>66</v>
       </c>
-      <c r="AJ11" s="54" t="s">
+      <c r="AJ11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AK11" s="54" t="s">
+      <c r="AK11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AL11" s="55" t="s">
+      <c r="AL11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AM11" s="55" t="s">
+      <c r="AM11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AN11" s="54" t="s">
+      <c r="AN11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AO11" s="54" t="s">
+      <c r="AO11" s="41" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4134,7 +4191,7 @@
       <c r="G12" s="14">
         <v>23</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="40">
         <v>39</v>
       </c>
       <c r="R12" s="5">
@@ -4167,30 +4224,30 @@
       <c r="AE12" s="20">
         <v>26</v>
       </c>
-      <c r="AF12" s="62">
+      <c r="AF12" s="57">
         <v>61</v>
       </c>
-      <c r="AJ12" s="56">
+      <c r="AJ12" s="59">
         <f>MIN(AF3:AF32)</f>
         <v>44</v>
       </c>
-      <c r="AK12" s="56">
+      <c r="AK12" s="59">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,1)</f>
         <v>54</v>
       </c>
-      <c r="AL12" s="57">
+      <c r="AL12" s="60">
         <f>AVERAGE(AF3:AF32)</f>
         <v>58.366666666666667</v>
       </c>
-      <c r="AM12" s="58">
+      <c r="AM12" s="61">
         <f>MEDIAN(AF3:AF32)</f>
         <v>58.5</v>
       </c>
-      <c r="AN12" s="59">
+      <c r="AN12" s="62">
         <f>_xlfn.QUARTILE.EXC(AF3:AF32,3)</f>
         <v>64</v>
       </c>
-      <c r="AO12" s="26">
+      <c r="AO12" s="63">
         <f>MAX(AF3:AF32)</f>
         <v>67</v>
       </c>
@@ -4202,7 +4259,7 @@
       <c r="G13" s="14">
         <v>19</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="39">
         <v>44</v>
       </c>
       <c r="AD13" s="7">
@@ -4211,7 +4268,7 @@
       <c r="AE13" s="20">
         <v>25</v>
       </c>
-      <c r="AF13" s="62">
+      <c r="AF13" s="57">
         <v>64</v>
       </c>
     </row>
@@ -4219,7 +4276,7 @@
       <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="38">
         <v>16</v>
       </c>
       <c r="H14" s="14">
@@ -4231,7 +4288,7 @@
       <c r="AE14" s="20">
         <v>24</v>
       </c>
-      <c r="AF14" s="62">
+      <c r="AF14" s="57">
         <v>65</v>
       </c>
     </row>
@@ -4239,29 +4296,29 @@
       <c r="F15" s="8">
         <v>13</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="39">
         <v>13</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="38">
         <v>47</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="34"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="54"/>
       <c r="AD15" s="7">
         <v>13</v>
       </c>
       <c r="AE15" s="20">
         <v>23</v>
       </c>
-      <c r="AF15" s="62">
+      <c r="AF15" s="57">
         <v>62</v>
       </c>
     </row>
@@ -4269,29 +4326,29 @@
       <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="40">
         <v>12</v>
       </c>
       <c r="H16" s="14">
         <v>52</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
       <c r="AD16" s="7">
         <v>14</v>
       </c>
       <c r="AE16" s="20">
         <v>22</v>
       </c>
-      <c r="AF16" s="62">
+      <c r="AF16" s="57">
         <v>61</v>
       </c>
     </row>
@@ -4299,22 +4356,22 @@
       <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="39">
         <v>16</v>
       </c>
       <c r="H17" s="14">
         <v>51</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="R17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="42" t="s">
+      <c r="S17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="43" t="s">
+      <c r="T17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="44" t="s">
+      <c r="U17" s="31" t="s">
         <v>13</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -4335,7 +4392,7 @@
       <c r="AE17" s="20">
         <v>21</v>
       </c>
-      <c r="AF17" s="61">
+      <c r="AF17" s="56">
         <v>57</v>
       </c>
     </row>
@@ -4379,7 +4436,7 @@
       <c r="AE18" s="20">
         <v>26</v>
       </c>
-      <c r="AF18" s="61">
+      <c r="AF18" s="56">
         <v>58</v>
       </c>
     </row>
@@ -4399,7 +4456,7 @@
       <c r="AE19" s="20">
         <v>24</v>
       </c>
-      <c r="AF19" s="61">
+      <c r="AF19" s="56">
         <v>55</v>
       </c>
     </row>
@@ -4413,23 +4470,23 @@
       <c r="H20" s="14">
         <v>64</v>
       </c>
-      <c r="R20" s="30" t="s">
+      <c r="R20" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
       <c r="AD20" s="7">
         <v>18</v>
       </c>
       <c r="AE20" s="20">
         <v>23</v>
       </c>
-      <c r="AF20" s="60">
+      <c r="AF20" s="58">
         <v>54</v>
       </c>
     </row>
@@ -4443,16 +4500,16 @@
       <c r="H21" s="14">
         <v>67</v>
       </c>
-      <c r="R21" s="41" t="s">
+      <c r="R21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="42" t="s">
+      <c r="S21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="43" t="s">
+      <c r="T21" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="44" t="s">
+      <c r="U21" s="31" t="s">
         <v>13</v>
       </c>
       <c r="V21" s="4" t="s">
@@ -4473,7 +4530,7 @@
       <c r="AE21" s="20">
         <v>27</v>
       </c>
-      <c r="AF21" s="60">
+      <c r="AF21" s="58">
         <v>53</v>
       </c>
     </row>
@@ -4517,7 +4574,7 @@
       <c r="AE22" s="20">
         <v>28</v>
       </c>
-      <c r="AF22" s="60">
+      <c r="AF22" s="58">
         <v>54</v>
       </c>
     </row>
@@ -4537,7 +4594,7 @@
       <c r="AE23" s="20">
         <v>27</v>
       </c>
-      <c r="AF23" s="60">
+      <c r="AF23" s="58">
         <v>55</v>
       </c>
     </row>
@@ -4557,7 +4614,7 @@
       <c r="AE24" s="21">
         <v>29</v>
       </c>
-      <c r="AF24" s="61">
+      <c r="AF24" s="56">
         <v>57</v>
       </c>
     </row>
@@ -4577,7 +4634,7 @@
       <c r="AE25" s="21">
         <v>30</v>
       </c>
-      <c r="AF25" s="61">
+      <c r="AF25" s="56">
         <v>59</v>
       </c>
     </row>
@@ -4597,7 +4654,7 @@
       <c r="AE26" s="22">
         <v>31</v>
       </c>
-      <c r="AF26" s="60">
+      <c r="AF26" s="58">
         <v>54</v>
       </c>
     </row>
@@ -4617,7 +4674,7 @@
       <c r="AE27" s="22">
         <v>31</v>
       </c>
-      <c r="AF27" s="60">
+      <c r="AF27" s="58">
         <v>54</v>
       </c>
     </row>
@@ -4637,7 +4694,7 @@
       <c r="AE28" s="22">
         <v>32</v>
       </c>
-      <c r="AF28" s="60">
+      <c r="AF28" s="58">
         <v>53</v>
       </c>
     </row>
@@ -4657,7 +4714,7 @@
       <c r="AE29" s="23">
         <v>36</v>
       </c>
-      <c r="AF29" s="60">
+      <c r="AF29" s="58">
         <v>52</v>
       </c>
     </row>
@@ -4677,7 +4734,7 @@
       <c r="AE30" s="22">
         <v>33</v>
       </c>
-      <c r="AF30" s="60">
+      <c r="AF30" s="58">
         <v>50</v>
       </c>
     </row>
@@ -4697,7 +4754,7 @@
       <c r="AE31" s="23">
         <v>35</v>
       </c>
-      <c r="AF31" s="60">
+      <c r="AF31" s="58">
         <v>48</v>
       </c>
     </row>
@@ -4717,24 +4774,24 @@
       <c r="AE32" s="23">
         <v>37</v>
       </c>
-      <c r="AF32" s="60">
+      <c r="AF32" s="58">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="R5:Y5"/>
+    <mergeCell ref="R15:Y15"/>
     <mergeCell ref="AJ5:AO5"/>
     <mergeCell ref="AJ10:AO10"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="J6:O6"/>
     <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="R6:Y6"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="R5:Y5"/>
-    <mergeCell ref="R15:Y15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
